--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tnf-Tnfrsf1a.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tnf-Tnfrsf1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -88,16 +91,13 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tnf</t>
   </si>
   <si>
     <t>Tnfrsf1a</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.29943763415928</v>
+        <v>2.691042333333334</v>
       </c>
       <c r="H2">
-        <v>2.29943763415928</v>
+        <v>8.073127000000001</v>
       </c>
       <c r="I2">
-        <v>0.002290569481566587</v>
+        <v>0.002563467013859998</v>
       </c>
       <c r="J2">
-        <v>0.002290569481566587</v>
+        <v>0.002563467013859998</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.1838330036519</v>
+        <v>25.88540433333334</v>
       </c>
       <c r="N2">
-        <v>18.1838330036519</v>
+        <v>77.65621300000001</v>
       </c>
       <c r="O2">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340375</v>
       </c>
       <c r="P2">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340374</v>
       </c>
       <c r="Q2">
-        <v>41.81258994186475</v>
+        <v>69.65871887645014</v>
       </c>
       <c r="R2">
-        <v>41.81258994186475</v>
+        <v>626.9284698880512</v>
       </c>
       <c r="S2">
-        <v>0.0001423620097045151</v>
+        <v>0.0002096172359232865</v>
       </c>
       <c r="T2">
-        <v>0.0001423620097045151</v>
+        <v>0.0002096172359232865</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.29943763415928</v>
+        <v>2.691042333333334</v>
       </c>
       <c r="H3">
-        <v>2.29943763415928</v>
+        <v>8.073127000000001</v>
       </c>
       <c r="I3">
-        <v>0.002290569481566587</v>
+        <v>0.002563467013859998</v>
       </c>
       <c r="J3">
-        <v>0.002290569481566587</v>
+        <v>0.002563467013859998</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>52.348355013117</v>
+        <v>52.814392</v>
       </c>
       <c r="N3">
-        <v>52.348355013117</v>
+        <v>158.443176</v>
       </c>
       <c r="O3">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="P3">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="Q3">
-        <v>120.3717776034918</v>
+        <v>142.1257646812614</v>
       </c>
       <c r="R3">
-        <v>120.3717776034918</v>
+        <v>1279.131882131352</v>
       </c>
       <c r="S3">
-        <v>0.0004098375201144928</v>
+        <v>0.0004276852980717306</v>
       </c>
       <c r="T3">
-        <v>0.0004098375201144928</v>
+        <v>0.0004276852980717306</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.29943763415928</v>
+        <v>2.691042333333334</v>
       </c>
       <c r="H4">
-        <v>2.29943763415928</v>
+        <v>8.073127000000001</v>
       </c>
       <c r="I4">
-        <v>0.002290569481566587</v>
+        <v>0.002563467013859998</v>
       </c>
       <c r="J4">
-        <v>0.002290569481566587</v>
+        <v>0.002563467013859998</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.5558067472885</v>
+        <v>48.59267866666666</v>
       </c>
       <c r="N4">
-        <v>40.5558067472885</v>
+        <v>145.778036</v>
       </c>
       <c r="O4">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571488</v>
       </c>
       <c r="P4">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571487</v>
       </c>
       <c r="Q4">
-        <v>93.25554831840603</v>
+        <v>130.7649553820636</v>
       </c>
       <c r="R4">
-        <v>93.25554831840603</v>
+        <v>1176.884598438572</v>
       </c>
       <c r="S4">
-        <v>0.0003175131531714132</v>
+        <v>0.000393498314998252</v>
       </c>
       <c r="T4">
-        <v>0.0003175131531714132</v>
+        <v>0.0003934983149982519</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.29943763415928</v>
+        <v>2.691042333333334</v>
       </c>
       <c r="H5">
-        <v>2.29943763415928</v>
+        <v>8.073127000000001</v>
       </c>
       <c r="I5">
-        <v>0.002290569481566587</v>
+        <v>0.002563467013859998</v>
       </c>
       <c r="J5">
-        <v>0.002290569481566587</v>
+        <v>0.002563467013859998</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>49.7414735219473</v>
+        <v>53.14871</v>
       </c>
       <c r="N5">
-        <v>49.7414735219473</v>
+        <v>159.44613</v>
       </c>
       <c r="O5">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="P5">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="Q5">
-        <v>114.377416194903</v>
+        <v>143.0254285720567</v>
       </c>
       <c r="R5">
-        <v>114.377416194903</v>
+        <v>1287.22885714851</v>
       </c>
       <c r="S5">
-        <v>0.000389428132936889</v>
+        <v>0.0004303925694814014</v>
       </c>
       <c r="T5">
-        <v>0.000389428132936889</v>
+        <v>0.0004303925694814014</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.29943763415928</v>
+        <v>2.691042333333334</v>
       </c>
       <c r="H6">
-        <v>2.29943763415928</v>
+        <v>8.073127000000001</v>
       </c>
       <c r="I6">
-        <v>0.002290569481566587</v>
+        <v>0.002563467013859998</v>
       </c>
       <c r="J6">
-        <v>0.002290569481566587</v>
+        <v>0.002563467013859998</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>115.793641629712</v>
+        <v>119.5972646666667</v>
       </c>
       <c r="N6">
-        <v>115.793641629712</v>
+        <v>358.791794</v>
       </c>
       <c r="O6">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="P6">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="Q6">
-        <v>266.2602573597125</v>
+        <v>321.8413021688709</v>
       </c>
       <c r="R6">
-        <v>266.2602573597125</v>
+        <v>2896.571719519838</v>
       </c>
       <c r="S6">
-        <v>0.000906553394441071</v>
+        <v>0.0009684858586941033</v>
       </c>
       <c r="T6">
-        <v>0.000906553394441071</v>
+        <v>0.0009684858586941033</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.29943763415928</v>
+        <v>2.691042333333334</v>
       </c>
       <c r="H7">
-        <v>2.29943763415928</v>
+        <v>8.073127000000001</v>
       </c>
       <c r="I7">
-        <v>0.002290569481566587</v>
+        <v>0.002563467013859998</v>
       </c>
       <c r="J7">
-        <v>0.002290569481566587</v>
+        <v>0.002563467013859998</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.950260062126</v>
+        <v>16.521302</v>
       </c>
       <c r="N7">
-        <v>15.950260062126</v>
+        <v>49.563906</v>
       </c>
       <c r="O7">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="P7">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="Q7">
-        <v>36.67662826148026</v>
+        <v>44.45952308378468</v>
       </c>
       <c r="R7">
-        <v>36.67662826148026</v>
+        <v>400.1357077540621</v>
       </c>
       <c r="S7">
-        <v>0.0001248752711982061</v>
+        <v>0.0001337877366912239</v>
       </c>
       <c r="T7">
-        <v>0.0001248752711982061</v>
+        <v>0.0001337877366912239</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -912,49 +912,49 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>56.7172813221023</v>
+        <v>0.1488733333333333</v>
       </c>
       <c r="H8">
-        <v>56.7172813221023</v>
+        <v>0.44662</v>
       </c>
       <c r="I8">
-        <v>0.05649854196690732</v>
+        <v>0.0001418156357171331</v>
       </c>
       <c r="J8">
-        <v>0.05649854196690732</v>
+        <v>0.0001418156357171331</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.1838330036519</v>
+        <v>25.88540433333334</v>
       </c>
       <c r="N8">
-        <v>18.1838330036519</v>
+        <v>77.65621300000001</v>
       </c>
       <c r="O8">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340375</v>
       </c>
       <c r="P8">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340374</v>
       </c>
       <c r="Q8">
-        <v>1031.337571982253</v>
+        <v>3.853646427784445</v>
       </c>
       <c r="R8">
-        <v>1031.337571982253</v>
+        <v>34.68281785006</v>
       </c>
       <c r="S8">
-        <v>0.003511461252108713</v>
+        <v>1.159640495040623E-05</v>
       </c>
       <c r="T8">
-        <v>0.003511461252108713</v>
+        <v>1.159640495040623E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>56.7172813221023</v>
+        <v>0.1488733333333333</v>
       </c>
       <c r="H9">
-        <v>56.7172813221023</v>
+        <v>0.44662</v>
       </c>
       <c r="I9">
-        <v>0.05649854196690732</v>
+        <v>0.0001418156357171331</v>
       </c>
       <c r="J9">
-        <v>0.05649854196690732</v>
+        <v>0.0001418156357171331</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>52.348355013117</v>
+        <v>52.814392</v>
       </c>
       <c r="N9">
-        <v>52.348355013117</v>
+        <v>158.443176</v>
       </c>
       <c r="O9">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="P9">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="Q9">
-        <v>2969.056378028241</v>
+        <v>7.862654585013333</v>
       </c>
       <c r="R9">
-        <v>2969.056378028241</v>
+        <v>70.76389126511999</v>
       </c>
       <c r="S9">
-        <v>0.0101089368893387</v>
+        <v>2.366032490567735E-05</v>
       </c>
       <c r="T9">
-        <v>0.0101089368893387</v>
+        <v>2.366032490567735E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>56.7172813221023</v>
+        <v>0.1488733333333333</v>
       </c>
       <c r="H10">
-        <v>56.7172813221023</v>
+        <v>0.44662</v>
       </c>
       <c r="I10">
-        <v>0.05649854196690732</v>
+        <v>0.0001418156357171331</v>
       </c>
       <c r="J10">
-        <v>0.05649854196690732</v>
+        <v>0.0001418156357171331</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.5558067472885</v>
+        <v>48.59267866666666</v>
       </c>
       <c r="N10">
-        <v>40.5558067472885</v>
+        <v>145.778036</v>
       </c>
       <c r="O10">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571488</v>
       </c>
       <c r="P10">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571487</v>
       </c>
       <c r="Q10">
-        <v>2300.215100530776</v>
+        <v>7.234154048702222</v>
       </c>
       <c r="R10">
-        <v>2300.215100530776</v>
+        <v>65.10738643831999</v>
       </c>
       <c r="S10">
-        <v>0.00783169004645567</v>
+        <v>2.176903911514327E-05</v>
       </c>
       <c r="T10">
-        <v>0.00783169004645567</v>
+        <v>2.176903911514327E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>56.7172813221023</v>
+        <v>0.1488733333333333</v>
       </c>
       <c r="H11">
-        <v>56.7172813221023</v>
+        <v>0.44662</v>
       </c>
       <c r="I11">
-        <v>0.05649854196690732</v>
+        <v>0.0001418156357171331</v>
       </c>
       <c r="J11">
-        <v>0.05649854196690732</v>
+        <v>0.0001418156357171331</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>49.7414735219473</v>
+        <v>53.14871</v>
       </c>
       <c r="N11">
-        <v>49.7414735219473</v>
+        <v>159.44613</v>
       </c>
       <c r="O11">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="P11">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="Q11">
-        <v>2821.201147120188</v>
+        <v>7.912425620066666</v>
       </c>
       <c r="R11">
-        <v>2821.201147120188</v>
+        <v>71.21183058060001</v>
       </c>
       <c r="S11">
-        <v>0.009605524691083065</v>
+        <v>2.381009606089232E-05</v>
       </c>
       <c r="T11">
-        <v>0.009605524691083065</v>
+        <v>2.381009606089232E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>56.7172813221023</v>
+        <v>0.1488733333333333</v>
       </c>
       <c r="H12">
-        <v>56.7172813221023</v>
+        <v>0.44662</v>
       </c>
       <c r="I12">
-        <v>0.05649854196690732</v>
+        <v>0.0001418156357171331</v>
       </c>
       <c r="J12">
-        <v>0.05649854196690732</v>
+        <v>0.0001418156357171331</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>115.793641629712</v>
+        <v>119.5972646666667</v>
       </c>
       <c r="N12">
-        <v>115.793641629712</v>
+        <v>358.791794</v>
       </c>
       <c r="O12">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="P12">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="Q12">
-        <v>6567.500547623072</v>
+        <v>17.80484344847556</v>
       </c>
       <c r="R12">
-        <v>6567.500547623072</v>
+        <v>160.24359103628</v>
       </c>
       <c r="S12">
-        <v>0.02236079080475699</v>
+        <v>5.357839090230593E-05</v>
       </c>
       <c r="T12">
-        <v>0.02236079080475699</v>
+        <v>5.357839090230593E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>56.7172813221023</v>
+        <v>0.1488733333333333</v>
       </c>
       <c r="H13">
-        <v>56.7172813221023</v>
+        <v>0.44662</v>
       </c>
       <c r="I13">
-        <v>0.05649854196690732</v>
+        <v>0.0001418156357171331</v>
       </c>
       <c r="J13">
-        <v>0.05649854196690732</v>
+        <v>0.0001418156357171331</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.950260062126</v>
+        <v>16.521302</v>
       </c>
       <c r="N13">
-        <v>15.950260062126</v>
+        <v>49.563906</v>
       </c>
       <c r="O13">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="P13">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="Q13">
-        <v>904.6553871042933</v>
+        <v>2.459581299746667</v>
       </c>
       <c r="R13">
-        <v>904.6553871042933</v>
+        <v>22.13623169772</v>
       </c>
       <c r="S13">
-        <v>0.003080138283164183</v>
+        <v>7.401379782708038E-06</v>
       </c>
       <c r="T13">
-        <v>0.003080138283164183</v>
+        <v>7.401379782708036E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>63.1950312046373</v>
+        <v>68.93732566666667</v>
       </c>
       <c r="H14">
-        <v>63.1950312046373</v>
+        <v>206.811977</v>
       </c>
       <c r="I14">
-        <v>0.06295130936087109</v>
+        <v>0.06566918631537351</v>
       </c>
       <c r="J14">
-        <v>0.06295130936087109</v>
+        <v>0.06566918631537352</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.1838330036519</v>
+        <v>25.88540433333334</v>
       </c>
       <c r="N14">
-        <v>18.1838330036519</v>
+        <v>77.65621300000001</v>
       </c>
       <c r="O14">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340375</v>
       </c>
       <c r="P14">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340374</v>
       </c>
       <c r="Q14">
-        <v>1149.127894085695</v>
+        <v>1784.470548540345</v>
       </c>
       <c r="R14">
-        <v>1149.127894085695</v>
+        <v>16060.2349368631</v>
       </c>
       <c r="S14">
-        <v>0.003912509524930444</v>
+        <v>0.005369834386919752</v>
       </c>
       <c r="T14">
-        <v>0.003912509524930444</v>
+        <v>0.005369834386919752</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>63.1950312046373</v>
+        <v>68.93732566666667</v>
       </c>
       <c r="H15">
-        <v>63.1950312046373</v>
+        <v>206.811977</v>
       </c>
       <c r="I15">
-        <v>0.06295130936087109</v>
+        <v>0.06566918631537351</v>
       </c>
       <c r="J15">
-        <v>0.06295130936087109</v>
+        <v>0.06566918631537352</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>52.348355013117</v>
+        <v>52.814392</v>
       </c>
       <c r="N15">
-        <v>52.348355013117</v>
+        <v>158.443176</v>
       </c>
       <c r="O15">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="P15">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="Q15">
-        <v>3308.15592856536</v>
+        <v>3640.882941190995</v>
       </c>
       <c r="R15">
-        <v>3308.15592856536</v>
+        <v>32767.94647071895</v>
       </c>
       <c r="S15">
-        <v>0.01126349090217269</v>
+        <v>0.01095615639739705</v>
       </c>
       <c r="T15">
-        <v>0.01126349090217269</v>
+        <v>0.01095615639739705</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>63.1950312046373</v>
+        <v>68.93732566666667</v>
       </c>
       <c r="H16">
-        <v>63.1950312046373</v>
+        <v>206.811977</v>
       </c>
       <c r="I16">
-        <v>0.06295130936087109</v>
+        <v>0.06566918631537351</v>
       </c>
       <c r="J16">
-        <v>0.06295130936087109</v>
+        <v>0.06566918631537352</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>40.5558067472885</v>
+        <v>48.59267866666666</v>
       </c>
       <c r="N16">
-        <v>40.5558067472885</v>
+        <v>145.778036</v>
       </c>
       <c r="O16">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571488</v>
       </c>
       <c r="P16">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571487</v>
       </c>
       <c r="Q16">
-        <v>2562.925472924137</v>
+        <v>3349.849314259686</v>
       </c>
       <c r="R16">
-        <v>2562.925472924137</v>
+        <v>30148.64382833717</v>
       </c>
       <c r="S16">
-        <v>0.008726156919618522</v>
+        <v>0.01008037709191955</v>
       </c>
       <c r="T16">
-        <v>0.008726156919618522</v>
+        <v>0.01008037709191955</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>63.1950312046373</v>
+        <v>68.93732566666667</v>
       </c>
       <c r="H17">
-        <v>63.1950312046373</v>
+        <v>206.811977</v>
       </c>
       <c r="I17">
-        <v>0.06295130936087109</v>
+        <v>0.06566918631537351</v>
       </c>
       <c r="J17">
-        <v>0.06295130936087109</v>
+        <v>0.06566918631537352</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>49.7414735219473</v>
+        <v>53.14871</v>
       </c>
       <c r="N17">
-        <v>49.7414735219473</v>
+        <v>159.44613</v>
       </c>
       <c r="O17">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="P17">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="Q17">
-        <v>3143.4139713841</v>
+        <v>3663.929930033223</v>
       </c>
       <c r="R17">
-        <v>3143.4139713841</v>
+        <v>32975.36937029901</v>
       </c>
       <c r="S17">
-        <v>0.01070258338270097</v>
+        <v>0.01102550946870506</v>
       </c>
       <c r="T17">
-        <v>0.01070258338270097</v>
+        <v>0.01102550946870506</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>63.1950312046373</v>
+        <v>68.93732566666667</v>
       </c>
       <c r="H18">
-        <v>63.1950312046373</v>
+        <v>206.811977</v>
       </c>
       <c r="I18">
-        <v>0.06295130936087109</v>
+        <v>0.06566918631537351</v>
       </c>
       <c r="J18">
-        <v>0.06295130936087109</v>
+        <v>0.06566918631537352</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>115.793641629712</v>
+        <v>119.5972646666667</v>
       </c>
       <c r="N18">
-        <v>115.793641629712</v>
+        <v>358.791794</v>
       </c>
       <c r="O18">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="P18">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="Q18">
-        <v>7317.582796088239</v>
+        <v>8244.715583168527</v>
       </c>
       <c r="R18">
-        <v>7317.582796088239</v>
+        <v>74202.44024851674</v>
       </c>
       <c r="S18">
-        <v>0.02491464399786585</v>
+        <v>0.02481002406292755</v>
       </c>
       <c r="T18">
-        <v>0.02491464399786585</v>
+        <v>0.02481002406292756</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>63.1950312046373</v>
+        <v>68.93732566666667</v>
       </c>
       <c r="H19">
-        <v>63.1950312046373</v>
+        <v>206.811977</v>
       </c>
       <c r="I19">
-        <v>0.06295130936087109</v>
+        <v>0.06566918631537351</v>
       </c>
       <c r="J19">
-        <v>0.06295130936087109</v>
+        <v>0.06566918631537352</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.950260062126</v>
+        <v>16.521302</v>
       </c>
       <c r="N19">
-        <v>15.950260062126</v>
+        <v>49.563906</v>
       </c>
       <c r="O19">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="P19">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="Q19">
-        <v>1007.977182348133</v>
+        <v>1138.934376411351</v>
       </c>
       <c r="R19">
-        <v>1007.977182348133</v>
+        <v>10250.40938770216</v>
       </c>
       <c r="S19">
-        <v>0.003431924633582623</v>
+        <v>0.003427284907504544</v>
       </c>
       <c r="T19">
-        <v>0.003431924633582623</v>
+        <v>0.003427284907504545</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>881.6598427613239</v>
+        <v>63.66430533333334</v>
       </c>
       <c r="H20">
-        <v>881.6598427613239</v>
+        <v>190.992916</v>
       </c>
       <c r="I20">
-        <v>0.878259579190655</v>
+        <v>0.06064614616454483</v>
       </c>
       <c r="J20">
-        <v>0.878259579190655</v>
+        <v>0.06064614616454483</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>18.1838330036519</v>
+        <v>25.88540433333334</v>
       </c>
       <c r="N20">
-        <v>18.1838330036519</v>
+        <v>77.65621300000001</v>
       </c>
       <c r="O20">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340375</v>
       </c>
       <c r="P20">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340374</v>
       </c>
       <c r="Q20">
-        <v>16031.95534679791</v>
+        <v>1647.976285154123</v>
       </c>
       <c r="R20">
-        <v>16031.95534679791</v>
+        <v>14831.78656638711</v>
       </c>
       <c r="S20">
-        <v>0.05458502775925888</v>
+        <v>0.004959095420256418</v>
       </c>
       <c r="T20">
-        <v>0.05458502775925888</v>
+        <v>0.004959095420256418</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>881.6598427613239</v>
+        <v>63.66430533333334</v>
       </c>
       <c r="H21">
-        <v>881.6598427613239</v>
+        <v>190.992916</v>
       </c>
       <c r="I21">
-        <v>0.878259579190655</v>
+        <v>0.06064614616454483</v>
       </c>
       <c r="J21">
-        <v>0.878259579190655</v>
+        <v>0.06064614616454483</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>52.348355013117</v>
+        <v>52.814392</v>
       </c>
       <c r="N21">
-        <v>52.348355013117</v>
+        <v>158.443176</v>
       </c>
       <c r="O21">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="P21">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="Q21">
-        <v>46153.4424496787</v>
+        <v>3362.391578282357</v>
       </c>
       <c r="R21">
-        <v>46153.4424496787</v>
+        <v>30261.52420454122</v>
       </c>
       <c r="S21">
-        <v>0.1571415889580962</v>
+        <v>0.01011811931226265</v>
       </c>
       <c r="T21">
-        <v>0.1571415889580962</v>
+        <v>0.01011811931226264</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>881.6598427613239</v>
+        <v>63.66430533333334</v>
       </c>
       <c r="H22">
-        <v>881.6598427613239</v>
+        <v>190.992916</v>
       </c>
       <c r="I22">
-        <v>0.878259579190655</v>
+        <v>0.06064614616454483</v>
       </c>
       <c r="J22">
-        <v>0.878259579190655</v>
+        <v>0.06064614616454483</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>40.5558067472885</v>
+        <v>48.59267866666666</v>
       </c>
       <c r="N22">
-        <v>40.5558067472885</v>
+        <v>145.778036</v>
       </c>
       <c r="O22">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571488</v>
       </c>
       <c r="P22">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571487</v>
       </c>
       <c r="Q22">
-        <v>35756.42619987302</v>
+        <v>3093.61913159922</v>
       </c>
       <c r="R22">
-        <v>35756.42619987302</v>
+        <v>27842.57218439298</v>
       </c>
       <c r="S22">
-        <v>0.1217422001541309</v>
+        <v>0.009309328420400505</v>
       </c>
       <c r="T22">
-        <v>0.1217422001541309</v>
+        <v>0.009309328420400503</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>881.6598427613239</v>
+        <v>63.66430533333334</v>
       </c>
       <c r="H23">
-        <v>881.6598427613239</v>
+        <v>190.992916</v>
       </c>
       <c r="I23">
-        <v>0.878259579190655</v>
+        <v>0.06064614616454483</v>
       </c>
       <c r="J23">
-        <v>0.878259579190655</v>
+        <v>0.06064614616454483</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>49.7414735219473</v>
+        <v>53.14871</v>
       </c>
       <c r="N23">
-        <v>49.7414735219473</v>
+        <v>159.44613</v>
       </c>
       <c r="O23">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="P23">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="Q23">
-        <v>43855.05972407661</v>
+        <v>3383.675701512787</v>
       </c>
       <c r="R23">
-        <v>43855.05972407661</v>
+        <v>30453.08131361508</v>
       </c>
       <c r="S23">
-        <v>0.1493161377162145</v>
+        <v>0.01018216756282732</v>
       </c>
       <c r="T23">
-        <v>0.1493161377162145</v>
+        <v>0.01018216756282732</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>881.6598427613239</v>
+        <v>63.66430533333334</v>
       </c>
       <c r="H24">
-        <v>881.6598427613239</v>
+        <v>190.992916</v>
       </c>
       <c r="I24">
-        <v>0.878259579190655</v>
+        <v>0.06064614616454483</v>
       </c>
       <c r="J24">
-        <v>0.878259579190655</v>
+        <v>0.06064614616454483</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>115.793641629712</v>
+        <v>119.5972646666667</v>
       </c>
       <c r="N24">
-        <v>115.793641629712</v>
+        <v>358.791794</v>
       </c>
       <c r="O24">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="P24">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="Q24">
-        <v>102090.603872013</v>
+        <v>7614.076774770145</v>
       </c>
       <c r="R24">
-        <v>102090.603872013</v>
+        <v>68526.6909729313</v>
       </c>
       <c r="S24">
-        <v>0.3475944341016619</v>
+        <v>0.02291230377730348</v>
       </c>
       <c r="T24">
-        <v>0.3475944341016619</v>
+        <v>0.02291230377730348</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>63.66430533333334</v>
+      </c>
+      <c r="H25">
+        <v>190.992916</v>
+      </c>
+      <c r="I25">
+        <v>0.06064614616454483</v>
+      </c>
+      <c r="J25">
+        <v>0.06064614616454483</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>16.521302</v>
+      </c>
+      <c r="N25">
+        <v>49.563906</v>
+      </c>
+      <c r="O25">
+        <v>0.05219015340079215</v>
+      </c>
+      <c r="P25">
+        <v>0.05219015340079215</v>
+      </c>
+      <c r="Q25">
+        <v>1051.817215032211</v>
+      </c>
+      <c r="R25">
+        <v>9466.354935289897</v>
+      </c>
+      <c r="S25">
+        <v>0.003165131671494458</v>
+      </c>
+      <c r="T25">
+        <v>0.003165131671494457</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>914.2618206666666</v>
+      </c>
+      <c r="H26">
+        <v>2742.785462</v>
+      </c>
+      <c r="I26">
+        <v>0.8709190451149539</v>
+      </c>
+      <c r="J26">
+        <v>0.8709190451149539</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>25.88540433333334</v>
+      </c>
+      <c r="N26">
+        <v>77.65621300000001</v>
+      </c>
+      <c r="O26">
+        <v>0.08177099014340375</v>
+      </c>
+      <c r="P26">
+        <v>0.08177099014340374</v>
+      </c>
+      <c r="Q26">
+        <v>23666.03689448616</v>
+      </c>
+      <c r="R26">
+        <v>212994.3320503754</v>
+      </c>
+      <c r="S26">
+        <v>0.07121591265379749</v>
+      </c>
+      <c r="T26">
+        <v>0.07121591265379748</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>914.2618206666666</v>
+      </c>
+      <c r="H27">
+        <v>2742.785462</v>
+      </c>
+      <c r="I27">
+        <v>0.8709190451149539</v>
+      </c>
+      <c r="J27">
+        <v>0.8709190451149539</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>52.814392</v>
+      </c>
+      <c r="N27">
+        <v>158.443176</v>
+      </c>
+      <c r="O27">
+        <v>0.1668386196347945</v>
+      </c>
+      <c r="P27">
+        <v>0.1668386196347945</v>
+      </c>
+      <c r="Q27">
+        <v>48286.18218732303</v>
+      </c>
+      <c r="R27">
+        <v>434575.6396859073</v>
+      </c>
+      <c r="S27">
+        <v>0.1453029313006322</v>
+      </c>
+      <c r="T27">
+        <v>0.1453029313006322</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>914.2618206666666</v>
+      </c>
+      <c r="H28">
+        <v>2742.785462</v>
+      </c>
+      <c r="I28">
+        <v>0.8709190451149539</v>
+      </c>
+      <c r="J28">
+        <v>0.8709190451149539</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>48.59267866666666</v>
+      </c>
+      <c r="N28">
+        <v>145.778036</v>
+      </c>
+      <c r="O28">
+        <v>0.1535023906571488</v>
+      </c>
+      <c r="P28">
+        <v>0.1535023906571487</v>
+      </c>
+      <c r="Q28">
+        <v>44426.43086885695</v>
+      </c>
+      <c r="R28">
+        <v>399837.8778197126</v>
+      </c>
+      <c r="S28">
+        <v>0.1336881554939866</v>
+      </c>
+      <c r="T28">
+        <v>0.1336881554939866</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>914.2618206666666</v>
+      </c>
+      <c r="H29">
+        <v>2742.785462</v>
+      </c>
+      <c r="I29">
+        <v>0.8709190451149539</v>
+      </c>
+      <c r="J29">
+        <v>0.8709190451149539</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>53.14871</v>
+      </c>
+      <c r="N29">
+        <v>159.44613</v>
+      </c>
+      <c r="O29">
+        <v>0.1678947172537743</v>
+      </c>
+      <c r="P29">
+        <v>0.1678947172537743</v>
+      </c>
+      <c r="Q29">
+        <v>48591.83637068467</v>
+      </c>
+      <c r="R29">
+        <v>437326.527336162</v>
+      </c>
+      <c r="S29">
+        <v>0.1462227068305023</v>
+      </c>
+      <c r="T29">
+        <v>0.1462227068305023</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>914.2618206666666</v>
+      </c>
+      <c r="H30">
+        <v>2742.785462</v>
+      </c>
+      <c r="I30">
+        <v>0.8709190451149539</v>
+      </c>
+      <c r="J30">
+        <v>0.8709190451149539</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>119.5972646666667</v>
+      </c>
+      <c r="N30">
+        <v>358.791794</v>
+      </c>
+      <c r="O30">
+        <v>0.3778031289100865</v>
+      </c>
+      <c r="P30">
+        <v>0.3778031289100865</v>
+      </c>
+      <c r="Q30">
+        <v>109343.2129408999</v>
+      </c>
+      <c r="R30">
+        <v>984088.9164680988</v>
+      </c>
+      <c r="S30">
+        <v>0.3290359402718144</v>
+      </c>
+      <c r="T30">
+        <v>0.3290359402718144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>881.6598427613239</v>
-      </c>
-      <c r="H25">
-        <v>881.6598427613239</v>
-      </c>
-      <c r="I25">
-        <v>0.878259579190655</v>
-      </c>
-      <c r="J25">
-        <v>0.878259579190655</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>15.950260062126</v>
-      </c>
-      <c r="N25">
-        <v>15.950260062126</v>
-      </c>
-      <c r="O25">
-        <v>0.05451712868923769</v>
-      </c>
-      <c r="P25">
-        <v>0.05451712868923769</v>
-      </c>
-      <c r="Q25">
-        <v>14062.70377837624</v>
-      </c>
-      <c r="R25">
-        <v>14062.70377837624</v>
-      </c>
-      <c r="S25">
-        <v>0.04788019050129268</v>
-      </c>
-      <c r="T25">
-        <v>0.04788019050129268</v>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>914.2618206666666</v>
+      </c>
+      <c r="H31">
+        <v>2742.785462</v>
+      </c>
+      <c r="I31">
+        <v>0.8709190451149539</v>
+      </c>
+      <c r="J31">
+        <v>0.8709190451149539</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>16.521302</v>
+      </c>
+      <c r="N31">
+        <v>49.563906</v>
+      </c>
+      <c r="O31">
+        <v>0.05219015340079215</v>
+      </c>
+      <c r="P31">
+        <v>0.05219015340079215</v>
+      </c>
+      <c r="Q31">
+        <v>15104.79564630384</v>
+      </c>
+      <c r="R31">
+        <v>135943.1608167346</v>
+      </c>
+      <c r="S31">
+        <v>0.04545339856422086</v>
+      </c>
+      <c r="T31">
+        <v>0.04545339856422086</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G32">
+        <v>0.06334266666666667</v>
+      </c>
+      <c r="H32">
+        <v>0.190028</v>
+      </c>
+      <c r="I32">
+        <v>6.033975555070391E-05</v>
+      </c>
+      <c r="J32">
+        <v>6.03397555507039E-05</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>25.88540433333334</v>
+      </c>
+      <c r="N32">
+        <v>77.65621300000001</v>
+      </c>
+      <c r="O32">
+        <v>0.08177099014340375</v>
+      </c>
+      <c r="P32">
+        <v>0.08177099014340374</v>
+      </c>
+      <c r="Q32">
+        <v>1.639650538218223</v>
+      </c>
+      <c r="R32">
+        <v>14.756854843964</v>
+      </c>
+      <c r="S32">
+        <v>4.934041556392001E-06</v>
+      </c>
+      <c r="T32">
+        <v>4.934041556391999E-06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G33">
+        <v>0.06334266666666667</v>
+      </c>
+      <c r="H33">
+        <v>0.190028</v>
+      </c>
+      <c r="I33">
+        <v>6.033975555070391E-05</v>
+      </c>
+      <c r="J33">
+        <v>6.03397555507039E-05</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>52.814392</v>
+      </c>
+      <c r="N33">
+        <v>158.443176</v>
+      </c>
+      <c r="O33">
+        <v>0.1668386196347945</v>
+      </c>
+      <c r="P33">
+        <v>0.1668386196347945</v>
+      </c>
+      <c r="Q33">
+        <v>3.345404427658667</v>
+      </c>
+      <c r="R33">
+        <v>30.108639848928</v>
+      </c>
+      <c r="S33">
+        <v>1.006700152518037E-05</v>
+      </c>
+      <c r="T33">
+        <v>1.006700152518037E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G34">
+        <v>0.06334266666666667</v>
+      </c>
+      <c r="H34">
+        <v>0.190028</v>
+      </c>
+      <c r="I34">
+        <v>6.033975555070391E-05</v>
+      </c>
+      <c r="J34">
+        <v>6.03397555507039E-05</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>48.59267866666666</v>
+      </c>
+      <c r="N34">
+        <v>145.778036</v>
+      </c>
+      <c r="O34">
+        <v>0.1535023906571488</v>
+      </c>
+      <c r="P34">
+        <v>0.1535023906571487</v>
+      </c>
+      <c r="Q34">
+        <v>3.077989847223111</v>
+      </c>
+      <c r="R34">
+        <v>27.701908625008</v>
+      </c>
+      <c r="S34">
+        <v>9.262296728701013E-06</v>
+      </c>
+      <c r="T34">
+        <v>9.26229672870101E-06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G35">
+        <v>0.06334266666666667</v>
+      </c>
+      <c r="H35">
+        <v>0.190028</v>
+      </c>
+      <c r="I35">
+        <v>6.033975555070391E-05</v>
+      </c>
+      <c r="J35">
+        <v>6.03397555507039E-05</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>53.14871</v>
+      </c>
+      <c r="N35">
+        <v>159.44613</v>
+      </c>
+      <c r="O35">
+        <v>0.1678947172537743</v>
+      </c>
+      <c r="P35">
+        <v>0.1678947172537743</v>
+      </c>
+      <c r="Q35">
+        <v>3.366581021293334</v>
+      </c>
+      <c r="R35">
+        <v>30.29922919164</v>
+      </c>
+      <c r="S35">
+        <v>1.013072619734729E-05</v>
+      </c>
+      <c r="T35">
+        <v>1.013072619734729E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G36">
+        <v>0.06334266666666667</v>
+      </c>
+      <c r="H36">
+        <v>0.190028</v>
+      </c>
+      <c r="I36">
+        <v>6.033975555070391E-05</v>
+      </c>
+      <c r="J36">
+        <v>6.03397555507039E-05</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>119.5972646666667</v>
+      </c>
+      <c r="N36">
+        <v>358.791794</v>
+      </c>
+      <c r="O36">
+        <v>0.3778031289100865</v>
+      </c>
+      <c r="P36">
+        <v>0.3778031289100865</v>
+      </c>
+      <c r="Q36">
+        <v>7.575609670025778</v>
+      </c>
+      <c r="R36">
+        <v>68.180487030232</v>
+      </c>
+      <c r="S36">
+        <v>2.27965484447257E-05</v>
+      </c>
+      <c r="T36">
+        <v>2.27965484447257E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G37">
+        <v>0.06334266666666667</v>
+      </c>
+      <c r="H37">
+        <v>0.190028</v>
+      </c>
+      <c r="I37">
+        <v>6.033975555070391E-05</v>
+      </c>
+      <c r="J37">
+        <v>6.03397555507039E-05</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>16.521302</v>
+      </c>
+      <c r="N37">
+        <v>49.563906</v>
+      </c>
+      <c r="O37">
+        <v>0.05219015340079215</v>
+      </c>
+      <c r="P37">
+        <v>0.05219015340079215</v>
+      </c>
+      <c r="Q37">
+        <v>1.046503325485334</v>
+      </c>
+      <c r="R37">
+        <v>9.418529929368001</v>
+      </c>
+      <c r="S37">
+        <v>3.149141098357537E-06</v>
+      </c>
+      <c r="T37">
+        <v>3.149141098357536E-06</v>
       </c>
     </row>
   </sheetData>
